--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508818.2719068672</v>
+        <v>512533.8764705643</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>325.9588454210943</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>56.35242035234106</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>360.1886202806451</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>17.06919439540851</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -978,16 +980,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>110.0127259007624</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>49.67353352483901</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>50.77333445464513</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>376.531199342365</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>188.1582211987005</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>141.8048870089415</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1278,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>58.0633291268696</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>296.1659717969481</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,19 +1454,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>70.26067323799711</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1570,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>20.25662081935932</v>
       </c>
       <c r="H14" t="n">
         <v>329.4930616586638</v>
@@ -1655,13 +1657,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.12957848219</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,19 +1694,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>1.980773860216795</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.3273332069601</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1934,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>11.57315202520407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="T19" t="n">
         <v>230.8471636524779</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>236.1929387592884</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>285.2450689407592</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
@@ -2141,13 +2143,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2214,13 +2216,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>59.53643965159095</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>35.02727269676035</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>164.16399322607</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>87.02004071937408</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -2415,7 +2417,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>207.7630856871921</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.16706806688746</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>77.98390611024926</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.67076193273343</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>216.2675986529428</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.23536968428013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V27" t="n">
-        <v>49.40550599527111</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.0040357308909</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>103.1087300426801</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.276733683989109</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2882,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -2889,7 +2891,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>208.4773048947066</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2934,7 +2936,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>79.14502203293654</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>11.57315202520413</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.2553523832226</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>120.8391135758914</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>158.7034744856297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>0.3500134355872933</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>117.6423617530316</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.87914143716711</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>103.1087300426801</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>57.49323211437453</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>50.87087620542049</v>
       </c>
       <c r="E36" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3469,16 +3471,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>128.9874563185104</v>
       </c>
       <c r="U37" t="n">
-        <v>46.16685623779799</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>78.59602910536552</v>
       </c>
       <c r="C38" t="n">
-        <v>46.09663431817579</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,10 +3593,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>265.1107116377228</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>46.09663431817624</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3822,16 +3824,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>53.96880691389086</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.88606849311432</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.72465793940852</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>46.09663431817579</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
         <v>160.0866360314548</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4122,7 +4124,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>187.6369766318132</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.6654196651797</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="C2" t="n">
-        <v>587.6654196651797</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="D2" t="n">
-        <v>214.8414548924032</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="E2" t="n">
-        <v>214.8414548924032</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F2" t="n">
-        <v>214.8414548924032</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H2" t="n">
         <v>214.8414548924032</v>
@@ -4328,19 +4330,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4352,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4415,13 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>816.8023087047204</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
         <v>1641.34525599867</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4513,25 +4515,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1325.640809157293</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="C5" t="n">
-        <v>1325.640809157293</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="D5" t="n">
-        <v>1325.640809157293</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="E5" t="n">
-        <v>1325.640809157293</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="F5" t="n">
-        <v>911.4896184674628</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="G5" t="n">
-        <v>547.662729295094</v>
+        <v>232.0830653928159</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4601,16 +4603,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.212805059961</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X5" t="n">
-        <v>1719.182664581455</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y5" t="n">
-        <v>1325.640809157293</v>
+        <v>626.126604910835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>674.4636602520131</v>
       </c>
       <c r="C6" t="n">
-        <v>300.1762316006536</v>
+        <v>512.7599874929679</v>
       </c>
       <c r="D6" t="n">
-        <v>189.052266044328</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="E6" t="n">
-        <v>42.02425610119923</v>
+        <v>226.8933405400512</v>
       </c>
       <c r="F6" t="n">
-        <v>42.02425610119923</v>
+        <v>92.19954248992551</v>
       </c>
       <c r="G6" t="n">
         <v>42.02425610119923</v>
@@ -4644,52 +4646,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.889799997958</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O6" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>522.7973049282982</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4750,25 +4752,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>99.63843430924186</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1344.101260631174</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C8" t="n">
-        <v>1344.101260631174</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D8" t="n">
-        <v>1344.101260631174</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E8" t="n">
-        <v>1344.101260631174</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V8" t="n">
-        <v>1344.101260631174</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W8" t="n">
-        <v>1344.101260631174</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X8" t="n">
-        <v>1344.101260631174</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1344.101260631174</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>902.8706034491895</v>
       </c>
       <c r="C9" t="n">
         <v>759.6333438441981</v>
@@ -4884,22 +4886,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4910,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>1062.29004623045</v>
       </c>
     </row>
     <row r="10">
@@ -4945,19 +4947,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>422.0744871084505</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>269.5938321342276</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>100.6740835020776</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="C11" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="D11" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="E11" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="F11" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G11" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I11" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0228003740045</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5066,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T11" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.212805059961</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V11" t="n">
-        <v>2101.212805059961</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W11" t="n">
-        <v>2101.212805059961</v>
+        <v>735.225342888863</v>
       </c>
       <c r="X11" t="n">
-        <v>2101.212805059961</v>
+        <v>436.0677956192184</v>
       </c>
       <c r="Y11" t="n">
-        <v>2101.212805059961</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C12" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>161.3375945908657</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E12" t="n">
-        <v>42.02425610119923</v>
+        <v>212.9324905625791</v>
       </c>
       <c r="F12" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G12" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H12" t="n">
         <v>42.02425610119923</v>
@@ -5124,10 +5126,10 @@
         <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>697.5908003646097</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M12" t="n">
-        <v>1182.624153874836</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N12" t="n">
         <v>1249.145305214519</v>
@@ -5142,28 +5144,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5218,22 +5220,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V13" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W13" t="n">
         <v>42.02425610119923</v>
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1718.524439280875</v>
+        <v>950.0577211131547</v>
       </c>
       <c r="C14" t="n">
-        <v>1336.590680613682</v>
+        <v>568.123962445962</v>
       </c>
       <c r="D14" t="n">
-        <v>963.766715840906</v>
+        <v>568.123962445962</v>
       </c>
       <c r="E14" t="n">
-        <v>963.766715840906</v>
+        <v>568.123962445962</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>568.123962445962</v>
       </c>
       <c r="G14" t="n">
         <v>547.662729295094</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924032</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K14" t="n">
         <v>354.1631724187877</v>
@@ -5303,25 +5305,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W14" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.524439280875</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="Y14" t="n">
-        <v>1718.524439280875</v>
+        <v>1344.101260631174</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C15" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D15" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E15" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>637.3366538315036</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.37000734173</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.916935000113</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.116885784264</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P15" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U15" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W15" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y15" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5467,19 +5469,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.02425610119923</v>
+        <v>929.5964879622866</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="D17" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E17" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F17" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G17" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>2099.212023382975</v>
       </c>
       <c r="X17" t="n">
-        <v>262.5569159062094</v>
+        <v>1717.181882904468</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.02425610119923</v>
+        <v>1323.640027480306</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C18" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E18" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F18" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.889799997958</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O18" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
@@ -5619,25 +5621,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T18" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W18" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X18" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
         <v>42.02425610119923</v>
@@ -5698,25 +5700,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>574.0835013471317</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T19" t="n">
-        <v>340.9045481628106</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.71430865191041</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>280.6029821206824</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="C20" t="n">
-        <v>42.02425610119923</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>724.9363082584855</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>330.1505883645924</v>
       </c>
       <c r="F20" t="n">
         <v>42.02425610119923</v>
@@ -5747,10 +5749,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K20" t="n">
         <v>354.1631724187877</v>
@@ -5774,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U20" t="n">
-        <v>1755.689182269809</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V20" t="n">
-        <v>1418.70990816575</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W20" t="n">
-        <v>1056.174978023351</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="X20" t="n">
-        <v>674.1448375448444</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="Y20" t="n">
-        <v>280.6029821206824</v>
+        <v>1097.760273031262</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C21" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D21" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E21" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F21" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5832,49 +5834,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.449152931943</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1531.332591687021</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X21" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y21" t="n">
-        <v>621.2993471409599</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>221.6083840306019</v>
       </c>
       <c r="H22" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I22" t="n">
         <v>42.02425610119923</v>
@@ -5932,28 +5934,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.6041949210367</v>
+        <v>1452.283929255936</v>
       </c>
       <c r="C23" t="n">
-        <v>580.6704362538439</v>
+        <v>1070.350170588744</v>
       </c>
       <c r="D23" t="n">
-        <v>207.8464714810675</v>
+        <v>697.5262058159672</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02425610119884</v>
+        <v>302.740485922074</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119884</v>
+        <v>302.740485922074</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119884</v>
+        <v>302.740485922074</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119884</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119884</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L23" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6020,19 +6022,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W23" t="n">
-        <v>1738.677874917562</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.647734439056</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="Y23" t="n">
-        <v>1356.647734439056</v>
+        <v>1846.327468773955</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>624.9395457940723</v>
+        <v>691.251058534259</v>
       </c>
       <c r="C24" t="n">
-        <v>624.9395457940723</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D24" t="n">
-        <v>486.1009087842844</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E24" t="n">
-        <v>339.0728988411556</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6078,10 +6080,10 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
         <v>2101.212805059961</v>
@@ -6105,13 +6107,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1043.191827665941</v>
       </c>
       <c r="X24" t="n">
-        <v>813.8206734913811</v>
+        <v>1043.191827665941</v>
       </c>
       <c r="Y24" t="n">
-        <v>784.3589885753331</v>
+        <v>850.6705013155199</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K25" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L25" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M25" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N25" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O25" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U25" t="n">
-        <v>534.0120246474009</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V25" t="n">
-        <v>273.2767202058235</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W25" t="n">
-        <v>273.2767202058235</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X25" t="n">
-        <v>42.02425610119923</v>
+        <v>1869.960340955337</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.02425610119923</v>
+        <v>1647.925182147614</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1245.103398109617</v>
+        <v>1358.552435734799</v>
       </c>
       <c r="C26" t="n">
-        <v>1245.103398109617</v>
+        <v>1358.552435734799</v>
       </c>
       <c r="D26" t="n">
-        <v>872.2794333368408</v>
+        <v>1358.552435734799</v>
       </c>
       <c r="E26" t="n">
-        <v>872.2794333368408</v>
+        <v>963.766715840906</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6251,25 +6253,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T26" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.212805059961</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="W26" t="n">
-        <v>2101.212805059961</v>
+        <v>1358.552435734799</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.182664581455</v>
+        <v>1358.552435734799</v>
       </c>
       <c r="Y26" t="n">
-        <v>1639.146937627636</v>
+        <v>1358.552435734799</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>852.9547312933042</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C27" t="n">
-        <v>691.251058534259</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D27" t="n">
-        <v>552.412421524471</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E27" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F27" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G27" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6315,10 +6317,10 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6333,22 +6335,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1912.527701225946</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U27" t="n">
-        <v>1694.032908824257</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V27" t="n">
-        <v>1644.128357313882</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W27" t="n">
-        <v>1402.812488547192</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X27" t="n">
-        <v>1204.895500424986</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.374174074565</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1879.177646252238</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1709.561676713919</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1879.177646252238</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1876.853858790972</v>
+        <v>1001.816610355009</v>
       </c>
       <c r="C29" t="n">
-        <v>1876.853858790972</v>
+        <v>1001.816610355009</v>
       </c>
       <c r="D29" t="n">
-        <v>1772.703626424629</v>
+        <v>628.9926455822329</v>
       </c>
       <c r="E29" t="n">
-        <v>1377.917906530736</v>
+        <v>628.9926455822329</v>
       </c>
       <c r="F29" t="n">
-        <v>963.766715840906</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G29" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H29" t="n">
         <v>214.8414548924032</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J29" t="n">
         <v>114.0228003740049</v>
@@ -6491,22 +6493,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V29" t="n">
-        <v>1876.853858790972</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W29" t="n">
-        <v>1876.853858790972</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X29" t="n">
-        <v>1876.853858790972</v>
+        <v>1395.358465779171</v>
       </c>
       <c r="Y29" t="n">
-        <v>1876.853858790972</v>
+        <v>1001.816610355009</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>718.2609332431787</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>556.5572604841334</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>417.7186234743454</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>270.6906135312166</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L30" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M30" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N30" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O30" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U30" t="n">
-        <v>1737.830181815422</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V30" t="n">
-        <v>1509.434559263756</v>
+        <v>1594.538121201551</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.118690497066</v>
+        <v>1353.222252434861</v>
       </c>
       <c r="X30" t="n">
-        <v>1070.201702374861</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>877.6803760244395</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6646,16 +6648,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S31" t="n">
-        <v>2089.52275250925</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T31" t="n">
-        <v>1856.343799324929</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U31" t="n">
-        <v>1569.153559814029</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.153559814029</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="W31" t="n">
         <v>1569.153559814029</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>963.766715840906</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C32" t="n">
-        <v>963.766715840906</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D32" t="n">
-        <v>963.766715840906</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E32" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F32" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6737,13 +6739,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W32" t="n">
-        <v>1739.338711743575</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X32" t="n">
-        <v>1357.308571265068</v>
+        <v>1979.153094377243</v>
       </c>
       <c r="Y32" t="n">
-        <v>963.766715840906</v>
+        <v>1585.611238953081</v>
       </c>
     </row>
     <row r="33">
@@ -6783,37 +6785,37 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1267.813808294736</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>1660.013759078887</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>1962.109678354585</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U33" t="n">
-        <v>1940.906265175487</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1471.548322781966</v>
       </c>
       <c r="W33" t="n">
         <v>1471.194773857131</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1722.225452986266</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C34" t="n">
-        <v>1722.225452986266</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>1814.022565549061</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.225452986266</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.225452986266</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X34" t="n">
-        <v>1722.225452986266</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y34" t="n">
-        <v>1722.225452986266</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1772.703626424629</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C35" t="n">
-        <v>1772.703626424629</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D35" t="n">
-        <v>1772.703626424629</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E35" t="n">
-        <v>1377.917906530736</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F35" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G35" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H35" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6965,22 +6967,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T35" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1772.703626424629</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V35" t="n">
-        <v>1772.703626424629</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W35" t="n">
-        <v>1772.703626424629</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X35" t="n">
-        <v>1772.703626424629</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y35" t="n">
-        <v>1772.703626424629</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>833.8831030332741</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>672.1794302742288</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E36" t="n">
-        <v>42.02425610119923</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K36" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L36" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M36" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O36" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7038,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>535.5461600008207</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R37" t="n">
-        <v>535.5461600008207</v>
+        <v>1913.153682328029</v>
       </c>
       <c r="S37" t="n">
-        <v>321.8363974045083</v>
+        <v>1699.443919731716</v>
       </c>
       <c r="T37" t="n">
-        <v>88.6574442201871</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1313.62741011778</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.065153230734</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D38" t="n">
         <v>1267.065153230734</v>
@@ -7217,7 +7219,7 @@
         <v>2101.212805059961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1707.670949635799</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.6641732647531</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C39" t="n">
-        <v>359.9605005057078</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D39" t="n">
-        <v>221.1218634959199</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E39" t="n">
-        <v>74.09385355279113</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F39" t="n">
-        <v>42.02425610119923</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G39" t="n">
         <v>42.02425610119923</v>
@@ -7254,22 +7256,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L39" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N39" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O39" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7278,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V39" t="n">
-        <v>1312.837799285331</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W39" t="n">
-        <v>1071.521930518641</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X39" t="n">
-        <v>873.6049423964351</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.083616046014</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G40" t="n">
-        <v>1932.293056427811</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H40" t="n">
-        <v>1772.920411207085</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I40" t="n">
-        <v>1628.717366809764</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J40" t="n">
         <v>1569.153559814029</v>
@@ -7363,19 +7365,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1267.065153230734</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.065153230734</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368405</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470108</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119884</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119884</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119884</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7451,10 +7453,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="X41" t="n">
-        <v>2054.650548172915</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.108692748753</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.6641732647531</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C42" t="n">
-        <v>359.9605005057078</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D42" t="n">
-        <v>305.4465541280403</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E42" t="n">
-        <v>305.4465541280403</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F42" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
         <v>42.02425610119923</v>
@@ -7491,13 +7493,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>271.5148086613879</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L42" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N42" t="n">
         <v>1406.916935000113</v>
@@ -7515,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1948.413318072701</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T42" t="n">
-        <v>1759.728214238687</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.233421836997</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V42" t="n">
-        <v>1312.837799285331</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.521930518641</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X42" t="n">
-        <v>873.6049423964351</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y42" t="n">
-        <v>681.083616046014</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
         <v>42.02425610119923</v>
@@ -7588,31 +7590,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V43" t="n">
-        <v>61.10109296293086</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>872.2794333368408</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C44" t="n">
-        <v>872.2794333368408</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D44" t="n">
-        <v>872.2794333368408</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E44" t="n">
         <v>872.2794333368408</v>
@@ -7649,13 +7651,13 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
         <v>1473.619070444537</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2041.894968757528</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2041.894968757528</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>2041.894968757528</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="U44" t="n">
-        <v>2041.894968757528</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="V44" t="n">
-        <v>2041.894968757528</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="W44" t="n">
-        <v>2041.894968757528</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.864828279022</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1266.32297285486</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7727,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L45" t="n">
         <v>410.6179353667646</v>
@@ -7749,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T45" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V45" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X45" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y45" t="n">
-        <v>624.2883738632869</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>1949.20379082128</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>1796.723135847057</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1627.803387214907</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7991,7 +7993,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415685</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8061,16 +8063,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>432.3011669654819</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8231,10 +8233,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,13 +8294,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>398.8657529605211</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8310,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8465,13 +8467,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O8" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,16 +8534,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>424.0295070382783</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8772,13 +8774,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>173.9082232290041</v>
+        <v>543.4252385523532</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,28 +9005,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>338.0029786846563</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9255,13 +9257,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>367.9315448499079</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9480,7 +9482,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>290.729511147374</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9492,13 +9494,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>129.0110038467633</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9726,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9893,7 +9895,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9963,13 +9965,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10130,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10206,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10364,10 +10366,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10431,10 +10433,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>254.2434002382024</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10902,10 +10904,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10917,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11139,7 +11141,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11150,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11297,7 +11299,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11373,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L45" t="n">
-        <v>424.0295070382783</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>64.87901727385986</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>321.8574187213806</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -22720,13 +22722,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>19.43647763297656</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22793,13 +22795,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>51.75432639970876</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>312.4238672632553</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,10 +22843,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22866,16 +22868,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.43752473892768</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>77.76768145210926</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22948,16 +22950,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>99.71558964164922</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -22990,7 +22992,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -22999,7 +23001,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -23008,7 +23010,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.7767707936835</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -23030,16 +23032,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>33.47847944056633</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.17826172444543</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18.28174902251334</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23148,13 +23150,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -23185,22 +23187,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>99.7155896416493</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>82.04386727677348</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23340,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>63.08618683162729</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23458,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -23507,7 +23509,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>391.6863258609945</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23558,7 +23560,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>89.08026059153156</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23747,10 +23749,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>356.9288069807582</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.2791036629602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>156.3466578177324</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23938,7 +23940,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,16 +23971,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>141.9214823212323</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>124.7646098421722</v>
       </c>
       <c r="G20" t="n">
         <v>411.9429466803539</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>179.3662704274321</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24139,13 +24141,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>122.7516460717586</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24172,10 +24174,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.67538296828747</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>226.6738694688842</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -24221,10 +24223,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>242.4730209392897</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24294,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>31.13962439183095</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>161.4290450200295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>103.7359088872868</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24418,10 +24420,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>244.6475751830577</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>222.1153568062989</v>
@@ -24500,16 +24502,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>142.6419821880322</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>310.3710671856402</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,13 +24575,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V27" t="n">
-        <v>176.7061603308782</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>12.53713850962399</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24649,13 +24651,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>265.9869950823686</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>371.9331053897325</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>7.832539582966319</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>116.7927962080468</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>199.9995129451452</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>40.87452179009296</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0.6542284577523674</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>57.60636999204326</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>238.5526966434358</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25093,10 +25095,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>25.11865220031666</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>167.2488099599945</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>149.2277528804658</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25217,10 +25219,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>332.1132047555458</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>86.57937443426954</v>
       </c>
       <c r="E36" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>101.8597073339675</v>
       </c>
       <c r="U37" t="n">
-        <v>238.1514808779931</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>311.5070750174734</v>
       </c>
       <c r="C38" t="n">
-        <v>332.0177867623449</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25479,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -25518,10 +25520,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>77.7676814521092</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4884972741916584</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>15.7076357194797</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>113.0037094427979</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25646,7 +25648,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>332.1132047555453</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25710,16 +25712,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>83.48144372579918</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -25755,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>148.3444826527142</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -25828,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25871,7 +25873,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>31.00724569969666</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>176.0187224881231</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -25928,7 +25930,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.959136455103732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,16 +26031,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>99.71558964164953</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992271</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992276</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132852.1443101849</v>
+        <v>132852.144310185</v>
       </c>
       <c r="C2" t="n">
         <v>132852.144310185</v>
@@ -26344,7 +26346,7 @@
         <v>132852.144310185</v>
       </c>
       <c r="M2" t="n">
-        <v>132852.1443101849</v>
+        <v>132852.144310185</v>
       </c>
       <c r="N2" t="n">
         <v>132852.144310185</v>
@@ -26353,7 +26355,7 @@
         <v>132852.144310185</v>
       </c>
       <c r="P2" t="n">
-        <v>132852.144310185</v>
+        <v>132852.1443101849</v>
       </c>
     </row>
     <row r="3">
@@ -26421,7 +26423,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="D4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="E4" t="n">
         <v>399.9854922104112</v>
@@ -26430,7 +26432,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="G4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="H4" t="n">
         <v>399.9854922104112</v>
@@ -26439,16 +26441,16 @@
         <v>399.9854922104112</v>
       </c>
       <c r="J4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="K4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="L4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="M4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="N4" t="n">
         <v>399.9854922104112</v>
@@ -26457,7 +26459,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="P4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109155.0605364643</v>
+        <v>-109155.0605364642</v>
       </c>
       <c r="C6" t="n">
-        <v>66886.12418106321</v>
+        <v>66886.12418106318</v>
       </c>
       <c r="D6" t="n">
-        <v>66886.12418106321</v>
+        <v>66886.12418106318</v>
       </c>
       <c r="E6" t="n">
         <v>100513.7241810632</v>
@@ -26552,7 +26554,7 @@
         <v>100513.7241810632</v>
       </c>
       <c r="M6" t="n">
-        <v>100513.7241810631</v>
+        <v>100513.7241810632</v>
       </c>
       <c r="N6" t="n">
         <v>100513.7241810632</v>
@@ -26561,7 +26563,7 @@
         <v>100513.7241810632</v>
       </c>
       <c r="P6" t="n">
-        <v>100513.7241810632</v>
+        <v>100513.7241810631</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34711,7 +34713,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>308.0854388614481</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34781,16 +34783,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>316.4417183543708</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34951,10 +34953,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>286.2903193893733</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35030,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O8" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4540734671306</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35492,13 +35494,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>67.19308216129573</v>
+        <v>436.7100974846449</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5170153233491</v>
+        <v>225.4275451135086</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35975,13 +35977,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>252.0720962387968</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>178.7333419807073</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36212,13 +36214,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.27581240187084</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36926,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,10 +37086,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37166,7 +37168,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
@@ -37400,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37637,10 +37639,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37868,7 +37870,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -38017,7 +38019,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L45" t="n">
-        <v>311.4540734671306</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512533.8764705643</v>
+        <v>444538.7085202903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340082</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>325.9588454210943</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.10416544368853</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -794,7 +794,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>114.7118858851247</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>17.06919439540851</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>220.6576159858904</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -964,7 +964,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>49.67353352483901</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>243.6292732104878</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>188.1582211987005</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>141.8048870089415</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>72.69829682042283</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1280,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>291.8234747115235</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>296.1659717969481</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>70.26067323799711</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>84.31882417064588</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>20.25662081935932</v>
+        <v>235.9242241922307</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>243.4438153256983</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>34.48929754405901</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.980773860216795</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>31.74890147707598</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.57315202520402</v>
+        <v>114.1716741434591</v>
       </c>
       <c r="T19" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>285.2450689407592</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>114.037926538856</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>59.53643965159095</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.02727269676035</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>23.62900810605255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>87.02004071937408</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>213.5877143817972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2408,13 +2408,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2459,10 +2459,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>207.7630856871921</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.98390611024926</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>290.4845790546289</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>216.2675986529428</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>11.57315202520402</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>66.95154967741719</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>386.1336356028509</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -2857,10 +2857,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>6.276733683989109</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -2936,7 +2936,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>79.14502203293654</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W31" t="n">
-        <v>242.4203156776819</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>209.1656001964907</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>120.8391135758914</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3122,13 +3122,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3500134355872933</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>117.6423617530316</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>94.39375210591641</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.9429466803539</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>165.389385360782</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.49323211437453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>50.87087620542049</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3359,10 +3359,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>168.7733238636743</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.9874563185104</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.59602910536552</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>411.9429466803539</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.45060044136385</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>109.0305713435654</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3720,10 +3720,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>265.1107116377228</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>332.1517405426096</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3878,7 +3878,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>124.5137077336011</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.6107013963115</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>79.82974192480785</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>46.09663431817579</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4061,13 +4061,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1707.169265541942</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C2" t="n">
-        <v>1707.169265541942</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D2" t="n">
-        <v>1707.169265541942</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F2" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J2" t="n">
         <v>114.0228003740049</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>1922.590513057139</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.212805059961</v>
+        <v>1922.590513057139</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.212805059961</v>
+        <v>1922.590513057139</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.611238953081</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.611238953081</v>
       </c>
       <c r="X2" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.611238953081</v>
       </c>
       <c r="Y2" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.611238953081</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C3" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D3" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E3" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F3" t="n">
         <v>42.02425610119923</v>
@@ -4415,16 +4415,16 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.0830653928159</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C5" t="n">
-        <v>232.0830653928159</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D5" t="n">
-        <v>232.0830653928159</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>232.0830653928159</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>232.0830653928159</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>232.0830653928159</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4600,19 +4600,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1878.326324266133</v>
       </c>
       <c r="V5" t="n">
-        <v>1764.233530955903</v>
+        <v>1541.347050162074</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.698600813504</v>
+        <v>1178.812120019675</v>
       </c>
       <c r="X5" t="n">
-        <v>1019.668460334997</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y5" t="n">
-        <v>626.126604910835</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>674.4636602520131</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C6" t="n">
-        <v>512.7599874929679</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D6" t="n">
-        <v>373.9213504831799</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E6" t="n">
-        <v>226.8933405400512</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F6" t="n">
-        <v>92.19954248992551</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
         <v>42.02425610119923</v>
@@ -4646,25 +4646,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>554.9422248568675</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.975578367094</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1551.241224490216</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T6" t="n">
-        <v>1912.527701225946</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U6" t="n">
-        <v>1694.032908824257</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V6" t="n">
-        <v>1465.63728627259</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W6" t="n">
-        <v>1224.321417505901</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.404429383695</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y6" t="n">
-        <v>833.8831030332741</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>522.7973049282982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4758,19 +4758,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.02425610119923</v>
+        <v>704.2184176070999</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02425610119923</v>
+        <v>704.2184176070999</v>
       </c>
       <c r="D8" t="n">
-        <v>42.02425610119923</v>
+        <v>704.2184176070999</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>704.2184176070999</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>704.2184176070999</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>288.1144310612879</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4831,25 +4831,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1911.153995768345</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V8" t="n">
-        <v>1574.174721664286</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W8" t="n">
-        <v>1211.639791521887</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="X8" t="n">
-        <v>829.6096510433804</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="Y8" t="n">
-        <v>436.0677956192184</v>
+        <v>704.2184176070999</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>902.8706034491895</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>459.5956743819146</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>459.5956743819146</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>312.5676644387858</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>312.5676644387858</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>183.8391644620704</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4886,49 +4886,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1501.522903119346</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1260.207034352656</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1062.29004623045</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1062.29004623045</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>422.0744871084505</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>269.5938321342276</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>100.6740835020776</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4992,22 +4992,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.02425610119928</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="C11" t="n">
-        <v>42.02425610119928</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="D11" t="n">
-        <v>42.02425610119928</v>
+        <v>1167.050619914137</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119928</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119928</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G11" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
         <v>354.1631724187877</v>
@@ -5068,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>1689.624883421327</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U11" t="n">
-        <v>1434.739547135321</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.760273031262</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="W11" t="n">
-        <v>735.225342888863</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="X11" t="n">
-        <v>436.0677956192184</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="Y11" t="n">
-        <v>436.0677956192184</v>
+        <v>1539.874584686914</v>
       </c>
     </row>
     <row r="12">
@@ -5102,16 +5102,16 @@
         <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>359.9605005057078</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E12" t="n">
-        <v>212.9324905625791</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F12" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
         <v>42.02425610119923</v>
@@ -5126,19 +5126,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>816.8023087047204</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O12" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P12" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
@@ -5226,16 +5226,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>127.1947855664981</v>
       </c>
       <c r="U13" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V13" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W13" t="n">
         <v>42.02425610119923</v>
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>950.0577211131547</v>
+        <v>1089.268463848791</v>
       </c>
       <c r="C14" t="n">
-        <v>568.123962445962</v>
+        <v>1089.268463848791</v>
       </c>
       <c r="D14" t="n">
-        <v>568.123962445962</v>
+        <v>1089.268463848791</v>
       </c>
       <c r="E14" t="n">
-        <v>568.123962445962</v>
+        <v>694.4827439548983</v>
       </c>
       <c r="F14" t="n">
-        <v>568.123962445962</v>
+        <v>280.3315532650686</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
         <v>354.1631724187877</v>
@@ -5302,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T14" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U14" t="n">
-        <v>1344.101260631174</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V14" t="n">
-        <v>1344.101260631174</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W14" t="n">
-        <v>1344.101260631174</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X14" t="n">
-        <v>1344.101260631174</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1344.101260631174</v>
+        <v>1483.312003366811</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C15" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D15" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E15" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F15" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5360,22 +5360,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L15" t="n">
-        <v>554.9422248568675</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.975578367094</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.241224490216</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
@@ -5384,25 +5384,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X15" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="16">
@@ -5469,10 +5469,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V16" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W16" t="n">
         <v>42.02425610119923</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>929.5964879622866</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="C17" t="n">
-        <v>547.662729295094</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="D17" t="n">
-        <v>547.662729295094</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="E17" t="n">
-        <v>547.662729295094</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="F17" t="n">
-        <v>547.662729295094</v>
+        <v>825.7871913366303</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>409.6832047908183</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>76.86193038812752</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5545,22 +5545,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W17" t="n">
-        <v>2099.212023382975</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.181882904468</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="Y17" t="n">
-        <v>1323.640027480306</v>
+        <v>1239.93838202646</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.6641732647531</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>359.9605005057078</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>221.1218634959199</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E18" t="n">
-        <v>74.09385355279113</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F18" t="n">
         <v>42.02425610119923</v>
@@ -5594,22 +5594,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L18" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N18" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O18" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P18" t="n">
         <v>2101.212805059961</v>
@@ -5618,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>681.083616046014</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5700,25 +5700,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>562.3934487964206</v>
+        <v>458.7585779699002</v>
       </c>
       <c r="T19" t="n">
-        <v>329.2144956120994</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="U19" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V19" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W19" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X19" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097.760273031262</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="C20" t="n">
-        <v>1097.760273031262</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="D20" t="n">
-        <v>724.9363082584855</v>
+        <v>852.9139625409043</v>
       </c>
       <c r="E20" t="n">
-        <v>330.1505883645924</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G20" t="n">
         <v>42.02425610119923</v>
@@ -5749,10 +5749,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
         <v>354.1631724187877</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T20" t="n">
-        <v>1689.624883421327</v>
+        <v>1895.384693769091</v>
       </c>
       <c r="U20" t="n">
-        <v>1434.739547135321</v>
+        <v>1640.499357483086</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.760273031262</v>
+        <v>1640.499357483086</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.760273031262</v>
+        <v>1640.499357483086</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.760273031262</v>
+        <v>1640.499357483086</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.760273031262</v>
+        <v>1246.957502058923</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5834,22 +5834,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>279.2244111952056</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L21" t="n">
-        <v>645.0462563653213</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M21" t="n">
-        <v>1130.079609875548</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N21" t="n">
-        <v>1641.34525599867</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O21" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P21" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5864,19 +5864,19 @@
         <v>1759.728214238687</v>
       </c>
       <c r="U21" t="n">
-        <v>1759.728214238687</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V21" t="n">
-        <v>1531.332591687021</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W21" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X21" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>221.6083840306019</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
         <v>42.02425610119923</v>
@@ -5943,19 +5943,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>574.0835013471317</v>
+        <v>550.215816391523</v>
       </c>
       <c r="V22" t="n">
-        <v>574.0835013471317</v>
+        <v>550.215816391523</v>
       </c>
       <c r="W22" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X22" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y22" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1452.283929255936</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C23" t="n">
-        <v>1070.350170588744</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D23" t="n">
-        <v>697.5262058159672</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E23" t="n">
-        <v>302.740485922074</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F23" t="n">
-        <v>302.740485922074</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G23" t="n">
-        <v>302.740485922074</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
@@ -6019,22 +6019,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U23" t="n">
-        <v>1846.327468773955</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="V23" t="n">
-        <v>1846.327468773955</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="W23" t="n">
-        <v>1846.327468773955</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="X23" t="n">
-        <v>1846.327468773955</v>
+        <v>1661.108692748753</v>
       </c>
       <c r="Y23" t="n">
-        <v>1846.327468773955</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>691.251058534259</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
         <v>42.02425610119923</v>
@@ -6068,22 +6068,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L24" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P24" t="n">
         <v>2101.212805059961</v>
@@ -6092,28 +6092,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.191827665941</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1043.191827665941</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.6705013155199</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K25" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L25" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M25" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N25" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O25" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
-        <v>1869.960340955337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>1647.925182147614</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1358.552435734799</v>
+        <v>1146.332729262752</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.552435734799</v>
+        <v>1146.332729262752</v>
       </c>
       <c r="D26" t="n">
-        <v>1358.552435734799</v>
+        <v>1146.332729262752</v>
       </c>
       <c r="E26" t="n">
-        <v>963.766715840906</v>
+        <v>751.5470093688587</v>
       </c>
       <c r="F26" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G26" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6253,25 +6253,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>1913.983829690315</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U26" t="n">
-        <v>1913.983829690315</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V26" t="n">
-        <v>1577.004555586257</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="W26" t="n">
-        <v>1358.552435734799</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.552435734799</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="Y26" t="n">
-        <v>1358.552435734799</v>
+        <v>1146.332729262752</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L27" t="n">
-        <v>697.5908003646097</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M27" t="n">
-        <v>1182.624153874836</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N27" t="n">
-        <v>1693.889799997958</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O27" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T27" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U27" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="28">
@@ -6411,19 +6411,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>562.3934487964206</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>329.2144956120994</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U28" t="n">
-        <v>42.02425610119923</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02425610119923</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="W28" t="n">
-        <v>42.02425610119923</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X28" t="n">
         <v>42.02425610119923</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1001.816610355009</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="C29" t="n">
-        <v>1001.816610355009</v>
+        <v>764.879505860305</v>
       </c>
       <c r="D29" t="n">
-        <v>628.9926455822329</v>
+        <v>764.879505860305</v>
       </c>
       <c r="E29" t="n">
-        <v>628.9926455822329</v>
+        <v>764.879505860305</v>
       </c>
       <c r="F29" t="n">
-        <v>214.8414548924032</v>
+        <v>764.879505860305</v>
       </c>
       <c r="G29" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
         <v>114.0228003740049</v>
@@ -6496,19 +6496,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V29" t="n">
-        <v>1764.233530955903</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W29" t="n">
-        <v>1401.698600813504</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X29" t="n">
-        <v>1395.358465779171</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="Y29" t="n">
-        <v>1001.816610355009</v>
+        <v>1146.813264527498</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6545,49 +6545,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L30" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1822.933743753217</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1594.538121201551</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1353.222252434861</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K31" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L31" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M31" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N31" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O31" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>1814.022565549061</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.022565549061</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1191.567699435062</v>
+        <v>626.126604910835</v>
       </c>
       <c r="C32" t="n">
-        <v>809.6339407678688</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E32" t="n">
         <v>42.02425610119923</v>
@@ -6736,16 +6736,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.212805059961</v>
+        <v>1401.698600813504</v>
       </c>
       <c r="X32" t="n">
-        <v>1979.153094377243</v>
+        <v>1019.668460334997</v>
       </c>
       <c r="Y32" t="n">
-        <v>1585.611238953081</v>
+        <v>626.126604910835</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
@@ -6785,46 +6785,46 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L33" t="n">
-        <v>271.5148086613879</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M33" t="n">
-        <v>756.5481621716143</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N33" t="n">
-        <v>1267.813808294736</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O33" t="n">
-        <v>1660.013759078887</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P33" t="n">
-        <v>1962.109678354585</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U33" t="n">
-        <v>1699.943945333632</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V33" t="n">
-        <v>1471.548322781966</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>390.5281326627519</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>220.9121631244322</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
         <v>42.02425610119923</v>
@@ -6882,28 +6882,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S34" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T34" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U34" t="n">
-        <v>574.0835013471317</v>
+        <v>137.3714804506097</v>
       </c>
       <c r="V34" t="n">
-        <v>574.0835013471317</v>
+        <v>137.3714804506097</v>
       </c>
       <c r="W34" t="n">
-        <v>574.0835013471317</v>
+        <v>137.3714804506097</v>
       </c>
       <c r="X34" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1267.065153230734</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.065153230734</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.065153230734</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="E35" t="n">
-        <v>872.2794333368408</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="F35" t="n">
-        <v>458.1282426470112</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>209.0842413141103</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>209.0842413141103</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6961,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X35" t="n">
-        <v>1719.182664581455</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.108692748753</v>
+        <v>1007.121986527115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>833.8831030332741</v>
+        <v>692.6706591732259</v>
       </c>
       <c r="C36" t="n">
-        <v>672.1794302742288</v>
+        <v>530.9669864141806</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>392.1283494043927</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H36" t="n">
         <v>110.4065414111382</v>
@@ -7016,22 +7016,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7046,22 +7046,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T36" t="n">
-        <v>1912.527701225946</v>
+        <v>1930.734700147159</v>
       </c>
       <c r="U36" t="n">
-        <v>1694.032908824257</v>
+        <v>1712.239907745469</v>
       </c>
       <c r="V36" t="n">
-        <v>1465.63728627259</v>
+        <v>1483.844285193803</v>
       </c>
       <c r="W36" t="n">
-        <v>1224.321417505901</v>
+        <v>1242.528416427113</v>
       </c>
       <c r="X36" t="n">
-        <v>1026.404429383695</v>
+        <v>1044.611428304908</v>
       </c>
       <c r="Y36" t="n">
-        <v>833.8831030332741</v>
+        <v>852.0901019544867</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.153682328029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>1699.443919731716</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021.822876670703</v>
+        <v>1003.769406210992</v>
       </c>
       <c r="C38" t="n">
-        <v>1639.88911800351</v>
+        <v>1003.769406210992</v>
       </c>
       <c r="D38" t="n">
-        <v>1267.065153230734</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="E38" t="n">
-        <v>872.2794333368408</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="F38" t="n">
-        <v>458.1282426470112</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2052.272804614139</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>1865.043829244493</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>1640.684882975504</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>1385.799546689498</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>1385.799546689498</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>1385.799546689498</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.212805059961</v>
+        <v>1003.769406210992</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.212805059961</v>
+        <v>1003.769406210992</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>753.0168738400023</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>591.313201080957</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>452.4745640711691</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>305.4465541280403</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
         <v>42.02425610119923</v>
@@ -7253,25 +7253,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K39" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L39" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M39" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P39" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7280,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>1991.080914813936</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1772.586122412246</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1544.19049986058</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1302.87463109389</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>1104.957642971684</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.4363166212631</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>1814.022565549061</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1707.670949635799</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C41" t="n">
-        <v>1439.882352021938</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D41" t="n">
-        <v>1439.882352021938</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E41" t="n">
-        <v>1045.096632128045</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F41" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G41" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H41" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I41" t="n">
         <v>42.02425610119923</v>
@@ -7441,22 +7441,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1541.347050162074</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1178.812120019675</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y41" t="n">
-        <v>1707.670949635799</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P42" t="n">
         <v>2101.212805059961</v>
@@ -7517,13 +7517,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>2051.037518671235</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>1862.35241483722</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1643.85762243553</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
         <v>1415.461999883864</v>
@@ -7602,10 +7602,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W43" t="n">
         <v>42.02425610119923</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.065153230734</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.065153230734</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.065153230734</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="E44" t="n">
-        <v>872.2794333368408</v>
+        <v>536.8115497453803</v>
       </c>
       <c r="F44" t="n">
-        <v>458.1282426470112</v>
+        <v>122.6603590555506</v>
       </c>
       <c r="G44" t="n">
         <v>42.02425610119923</v>
@@ -7651,13 +7651,13 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037339</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N44" t="n">
         <v>1473.619070444537</v>
@@ -7678,22 +7678,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>2054.650548172915</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>2054.650548172915</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>2054.650548172915</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W44" t="n">
-        <v>2054.650548172915</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X44" t="n">
-        <v>2054.650548172915</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.108692748753</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.2883738632869</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C45" t="n">
-        <v>462.5847011042416</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D45" t="n">
-        <v>323.7460640944537</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E45" t="n">
-        <v>176.7180541513249</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F45" t="n">
         <v>42.02425610119923</v>
@@ -7727,16 +7727,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L45" t="n">
-        <v>410.6179353667646</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M45" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N45" t="n">
         <v>1406.916935000113</v>
@@ -7751,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S45" t="n">
-        <v>2051.037518671235</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T45" t="n">
-        <v>1862.35241483722</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U45" t="n">
-        <v>1643.85762243553</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V45" t="n">
-        <v>1415.461999883864</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W45" t="n">
-        <v>1174.146131117174</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X45" t="n">
-        <v>976.229142994969</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y45" t="n">
-        <v>783.7078166445478</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="46">
@@ -7993,7 +7993,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8063,10 +8063,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>338.0029786846563</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8075,7 +8075,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8233,7 +8233,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8294,16 +8294,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>398.8657529605211</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
@@ -8312,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8473,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8534,7 +8534,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8543,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8710,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8774,22 +8774,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>543.4252385523532</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8947,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9008,25 +9008,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>338.0029786846563</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9257,10 +9257,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>283.012208529709</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9482,7 +9482,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>290.729511147374</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9494,13 +9494,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9728,13 +9728,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9895,7 +9895,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>398.8657529605211</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9971,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>124.1300184260142</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10193,10 +10193,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L30" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10366,7 +10366,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
         <v>276.0094878578761</v>
@@ -10433,7 +10433,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q33" t="n">
-        <v>254.2434002382024</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10682,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10901,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10919,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11141,7 +11141,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11156,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11387,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.87901727385986</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>98.25252017226104</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -22606,7 +22606,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -22634,10 +22634,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>101.5979585925483</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>19.43647763297656</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -22761,13 +22761,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22801,10 +22801,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>312.4238672632553</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>31.67886693725549</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>77.76768145210926</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22913,7 +22913,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22950,16 +22950,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -22998,13 +22998,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -23035,10 +23035,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>85.86378844817602</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23071,22 +23071,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.17826172444543</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>18.28174902251334</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>26.24018205834611</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,16 +23187,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>99.7155896416493</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -23232,13 +23232,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>246.5547993719575</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>99.01438798343071</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>329.4930616586638</v>
@@ -23308,22 +23308,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>82.04386727677348</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23342,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63.08618683162729</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23466,19 +23466,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>199.9995129451452</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>391.6863258609945</v>
+        <v>176.0187224881232</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>40.87452179009284</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23743,16 +23743,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.5997292592329</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9288069807582</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>101.5979585925484</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23940,13 +23940,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>199.9995129451453</v>
+        <v>97.40099082689017</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>124.7646098421722</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>108.077430267443</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
@@ -24037,7 +24037,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>179.3662704274321</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24141,13 +24141,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>122.7516460717586</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24183,19 +24183,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>260.6893290097386</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>242.4730209392897</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>38.74876854134874</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>31.13962439183095</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.7359088872868</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24420,19 +24420,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>119.5250997283025</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>142.6419821880322</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>199.9995129451453</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>216.3432877903577</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24682,25 +24682,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>25.80931107750303</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>371.9331053897325</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>116.7927962080468</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W31" t="n">
-        <v>40.87452179009296</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>168.9488208840299</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24976,13 +24976,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>257.3707254978302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>238.5526966434358</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25095,10 +25095,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>25.11865220031666</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>211.5726649703493</v>
@@ -25131,7 +25131,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25140,7 +25140,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>134.5461873576616</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>5.699641442509972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.1132047555458</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>86.57937443426954</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>18.02492893200034</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>101.8597073339675</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>311.5070750174734</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>41.28130319774133</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25456,7 +25456,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -25520,10 +25520,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>77.7676814521092</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>15.7076357194797</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,25 +25630,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>113.0037094427979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>1.457740820408446</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25757,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>101.5979585925483</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>14.6841360714634</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.113204755546</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
@@ -25918,7 +25918,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>176.0187224881231</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -25930,7 +25930,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642118.6974992272</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642118.6974992271</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992272</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992272</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642118.6974992274</v>
+        <v>642118.6974992275</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642118.6974992275</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642118.6974992276</v>
+        <v>642118.6974992274</v>
       </c>
     </row>
   </sheetData>
@@ -26352,10 +26352,10 @@
         <v>132852.144310185</v>
       </c>
       <c r="O2" t="n">
+        <v>132852.1443101849</v>
+      </c>
+      <c r="P2" t="n">
         <v>132852.144310185</v>
-      </c>
-      <c r="P2" t="n">
-        <v>132852.1443101849</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="C4" t="n">
         <v>399.9854922104112</v>
@@ -26429,10 +26429,10 @@
         <v>399.9854922104112</v>
       </c>
       <c r="F4" t="n">
+        <v>399.9854922104111</v>
+      </c>
+      <c r="G4" t="n">
         <v>399.9854922104112</v>
-      </c>
-      <c r="G4" t="n">
-        <v>399.9854922104111</v>
       </c>
       <c r="H4" t="n">
         <v>399.9854922104112</v>
@@ -26441,16 +26441,16 @@
         <v>399.9854922104112</v>
       </c>
       <c r="J4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="K4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="L4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="M4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="N4" t="n">
         <v>399.9854922104112</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109155.0605364642</v>
+        <v>-117274.65002297</v>
       </c>
       <c r="C6" t="n">
-        <v>66886.12418106318</v>
+        <v>58766.53469455738</v>
       </c>
       <c r="D6" t="n">
-        <v>66886.12418106318</v>
+        <v>58766.53469455738</v>
       </c>
       <c r="E6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455739</v>
       </c>
       <c r="F6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455739</v>
       </c>
       <c r="G6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455742</v>
       </c>
       <c r="H6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455742</v>
       </c>
       <c r="I6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455742</v>
       </c>
       <c r="J6" t="n">
-        <v>-36928.70661071395</v>
+        <v>-45048.29609721975</v>
       </c>
       <c r="K6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455736</v>
       </c>
       <c r="L6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455739</v>
       </c>
       <c r="M6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455736</v>
       </c>
       <c r="N6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455739</v>
       </c>
       <c r="O6" t="n">
-        <v>100513.7241810632</v>
+        <v>92394.13469455733</v>
       </c>
       <c r="P6" t="n">
-        <v>100513.7241810631</v>
+        <v>92394.13469455745</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34783,10 +34783,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>225.4275451135086</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34795,7 +34795,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34953,7 +34953,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>286.2903193893733</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
@@ -35032,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35263,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>436.7100974846449</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>225.4275451135086</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35977,10 +35977,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>167.1527599185979</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>178.7333419807073</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36214,13 +36214,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36448,13 +36448,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>286.2903193893733</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36691,10 +36691,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L30" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36931,7 +36931,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
         <v>95.38611483488586</v>
@@ -37153,7 +37153,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37165,10 +37165,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.5082087933099</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
@@ -37402,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37639,10 +37639,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37876,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38107,7 +38107,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789112</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
